--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1138514.526347647</v>
+        <v>1164715.832887883</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453903</v>
+        <v>5562152.400446149</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.119178671</v>
+        <v>2921012.045488843</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8107640.249619754</v>
+        <v>8334161.934462929</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +664,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>372.8751628069953</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>295.4113838764509</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>58.69598865801151</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1.733818067948137</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>66.96547312552386</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -908,13 +910,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>362.8936521561746</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>44.50571143235724</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>103.2875137595527</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1144,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>335.6151592418585</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>341.5246551443416</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -1306,7 +1308,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1342,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>5.810347355208235</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>369.0970882577171</v>
       </c>
       <c r="F11" t="n">
-        <v>394.5429405869024</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -1433,10 +1435,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1591,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059088</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1607,19 +1609,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>369.0970882577171</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>40.58075662405863</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1765,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>28.36197027651802</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1828,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>351.080144279057</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>43.44362966055525</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>152.0685100933578</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>351.080144279057</v>
+        <v>347.730837880977</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>116.0240661065096</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>220.9263373332085</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2324,10 +2326,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>59.82422708687625</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -2336,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>67.34451602363485</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -2494,7 +2496,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>129.0638484442156</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2761,10 +2763,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>166.7165542762725</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>165.421695385058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2849,7 +2851,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>37.78331767565417</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2950,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>98.9457413571089</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>369.6581867526364</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -3041,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3196,16 +3198,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>102.0865951624301</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.31383608752344</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3272,10 +3274,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3329,10 +3331,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>351.080144279057</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>166.7165542762732</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,19 +3477,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>59.82422708687625</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -3521,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>123.8394724344234</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3661,25 +3663,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>59.11361164509869</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>54.68688746169106</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3743,16 +3745,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>85.27448718791905</v>
+        <v>178.8846941420548</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3803,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>61.68031409927293</v>
+        <v>118.6750583265962</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -3913,10 +3915,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3980,16 +3982,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>255.6087457040427</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>154.7701818793703</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -4144,16 +4146,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>250.2730829068768</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>175.4647255438876</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1367.723277165894</v>
+        <v>2517.150449389417</v>
       </c>
       <c r="C2" t="n">
-        <v>957.598686479164</v>
+        <v>2107.025858702687</v>
       </c>
       <c r="D2" t="n">
-        <v>580.9571078862394</v>
+        <v>1702.561928795748</v>
       </c>
       <c r="E2" t="n">
-        <v>166.6168924031362</v>
+        <v>1288.221713312645</v>
       </c>
       <c r="F2" t="n">
-        <v>149.6268843972278</v>
+        <v>867.1913012663322</v>
       </c>
       <c r="G2" t="n">
-        <v>144.9390043304641</v>
+        <v>458.4630171591643</v>
       </c>
       <c r="H2" t="n">
-        <v>144.9390043304641</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K2" t="n">
-        <v>596.7467427565767</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L2" t="n">
-        <v>1309.338142568815</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M2" t="n">
-        <v>1964.570219164463</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N2" t="n">
-        <v>1964.570219164463</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O2" t="n">
-        <v>2608.201075581568</v>
+        <v>3324.07820888</v>
       </c>
       <c r="P2" t="n">
-        <v>2608.201075581568</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T2" t="n">
-        <v>2929.36208237686</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U2" t="n">
-        <v>2929.36208237686</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="V2" t="n">
-        <v>2579.524527713341</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="W2" t="n">
-        <v>2579.524527713341</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="X2" t="n">
-        <v>2178.881129882293</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="Y2" t="n">
-        <v>1777.944456830383</v>
+        <v>2927.371629053907</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1561.703728412895</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C3" t="n">
-        <v>1427.70865716184</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D3" t="n">
-        <v>1310.811499381233</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.318683373561</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F3" t="n">
-        <v>1081.358803556065</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G3" t="n">
-        <v>974.3686908704041</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H3" t="n">
-        <v>903.6214779061202</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I3" t="n">
-        <v>882.8728865263604</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J3" t="n">
-        <v>882.8728865263604</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K3" t="n">
-        <v>1338.679142791659</v>
+        <v>475.1381459967595</v>
       </c>
       <c r="L3" t="n">
-        <v>1338.679142791659</v>
+        <v>475.1381459967595</v>
       </c>
       <c r="M3" t="n">
-        <v>2063.696258179932</v>
+        <v>475.1381459967595</v>
       </c>
       <c r="N3" t="n">
-        <v>2549.958098330247</v>
+        <v>475.1381459967595</v>
       </c>
       <c r="O3" t="n">
-        <v>2549.958098330247</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P3" t="n">
-        <v>2549.958098330247</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q3" t="n">
-        <v>2899.80256301423</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R3" t="n">
-        <v>2929.36208237686</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S3" t="n">
-        <v>2821.372072491169</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T3" t="n">
-        <v>2662.030208678177</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U3" t="n">
-        <v>2464.679397816396</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V3" t="n">
-        <v>2250.96787080943</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W3" t="n">
-        <v>2037.734702545758</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X3" t="n">
-        <v>1861.408720684651</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y3" t="n">
-        <v>1702.006761048481</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>822.3791509275845</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="C4" t="n">
-        <v>651.285778489301</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="D4" t="n">
-        <v>491.791133812211</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="E4" t="n">
-        <v>491.791133812211</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="F4" t="n">
-        <v>491.791133812211</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="G4" t="n">
-        <v>324.5407427377544</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H4" t="n">
-        <v>174.9332875432111</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S4" t="n">
-        <v>1587.986138268387</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T4" t="n">
-        <v>1348.437399245089</v>
+        <v>1177.17430670476</v>
       </c>
       <c r="U4" t="n">
-        <v>1348.437399245089</v>
+        <v>894.3761592508838</v>
       </c>
       <c r="V4" t="n">
-        <v>1348.437399245089</v>
+        <v>620.4904141904058</v>
       </c>
       <c r="W4" t="n">
-        <v>1069.367734753964</v>
+        <v>341.4207496992801</v>
       </c>
       <c r="X4" t="n">
-        <v>1010.078857321629</v>
+        <v>341.4207496992801</v>
       </c>
       <c r="Y4" t="n">
-        <v>1010.078857321629</v>
+        <v>339.6694183175143</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1861.143737919971</v>
+        <v>2090.234309952579</v>
       </c>
       <c r="C5" t="n">
-        <v>1793.501845873987</v>
+        <v>1680.109719265849</v>
       </c>
       <c r="D5" t="n">
-        <v>1389.037915967048</v>
+        <v>1275.645789358909</v>
       </c>
       <c r="E5" t="n">
-        <v>974.6977004839443</v>
+        <v>861.3055738758062</v>
       </c>
       <c r="F5" t="n">
-        <v>553.6672884376319</v>
+        <v>440.2751618294938</v>
       </c>
       <c r="G5" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H5" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>144.1059746344691</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K5" t="n">
-        <v>682.2654757435087</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L5" t="n">
-        <v>1394.856875555747</v>
+        <v>662.3476926029365</v>
       </c>
       <c r="M5" t="n">
-        <v>1394.856875555747</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="N5" t="n">
-        <v>1394.856875555747</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O5" t="n">
-        <v>2038.487731972852</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P5" t="n">
-        <v>2567.644429892003</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q5" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U5" t="n">
-        <v>2672.30159063637</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V5" t="n">
-        <v>2672.30159063637</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W5" t="n">
-        <v>2672.30159063637</v>
+        <v>3302.035560500025</v>
       </c>
       <c r="X5" t="n">
-        <v>2672.30159063637</v>
+        <v>2901.392162668978</v>
       </c>
       <c r="Y5" t="n">
-        <v>2271.36491758446</v>
+        <v>2500.455489617068</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1561.703728412895</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C6" t="n">
-        <v>1427.70865716184</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D6" t="n">
-        <v>1310.811499381233</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E6" t="n">
-        <v>1190.318683373561</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F6" t="n">
-        <v>1081.358803556065</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G6" t="n">
-        <v>974.3686908704041</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H6" t="n">
-        <v>903.6214779061202</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I6" t="n">
-        <v>882.8728865263604</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>882.8728865263604</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K6" t="n">
-        <v>1338.679142791659</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L6" t="n">
-        <v>1338.679142791659</v>
+        <v>192.7454657363016</v>
       </c>
       <c r="M6" t="n">
-        <v>2063.696258179932</v>
+        <v>192.7454657363016</v>
       </c>
       <c r="N6" t="n">
-        <v>2788.713373568205</v>
+        <v>1066.40355784792</v>
       </c>
       <c r="O6" t="n">
-        <v>2788.713373568205</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="P6" t="n">
-        <v>2929.36208237686</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q6" t="n">
-        <v>2929.36208237686</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R6" t="n">
-        <v>2929.36208237686</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S6" t="n">
-        <v>2821.372072491169</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T6" t="n">
-        <v>2662.030208678177</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U6" t="n">
-        <v>2464.679397816396</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V6" t="n">
-        <v>2250.96787080943</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W6" t="n">
-        <v>2037.734702545758</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X6" t="n">
-        <v>1861.408720684651</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y6" t="n">
-        <v>1702.006761048481</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>600.1778191799981</v>
+        <v>673.2658822114255</v>
       </c>
       <c r="C7" t="n">
-        <v>429.0844467417146</v>
+        <v>502.172509773142</v>
       </c>
       <c r="D7" t="n">
-        <v>384.1291826686265</v>
+        <v>342.677865096052</v>
       </c>
       <c r="E7" t="n">
-        <v>223.2183675369459</v>
+        <v>342.677865096052</v>
       </c>
       <c r="F7" t="n">
-        <v>58.5872416475372</v>
+        <v>178.0467392066433</v>
       </c>
       <c r="G7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S7" t="n">
-        <v>1401.594370148297</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T7" t="n">
-        <v>1162.045631125</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U7" t="n">
-        <v>879.2474836711237</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V7" t="n">
-        <v>879.2474836711237</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W7" t="n">
-        <v>600.1778191799981</v>
+        <v>1324.045149357022</v>
       </c>
       <c r="X7" t="n">
-        <v>600.1778191799981</v>
+        <v>1085.701287216705</v>
       </c>
       <c r="Y7" t="n">
-        <v>600.1778191799981</v>
+        <v>860.9655886054699</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1717.560831829413</v>
+        <v>2529.663609512759</v>
       </c>
       <c r="C8" t="n">
-        <v>1307.436241142683</v>
+        <v>2119.539018826029</v>
       </c>
       <c r="D8" t="n">
-        <v>902.9723112357437</v>
+        <v>1715.075088919089</v>
       </c>
       <c r="E8" t="n">
-        <v>488.6320957526405</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F8" t="n">
-        <v>149.6268843972278</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G8" t="n">
-        <v>144.9390043304641</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H8" t="n">
-        <v>144.9390043304641</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K8" t="n">
-        <v>596.7467427565767</v>
+        <v>270.9172995859905</v>
       </c>
       <c r="L8" t="n">
-        <v>1309.338142568815</v>
+        <v>983.5086993982285</v>
       </c>
       <c r="M8" t="n">
-        <v>1560.714110571482</v>
+        <v>1759.827290389982</v>
       </c>
       <c r="N8" t="n">
-        <v>2285.731225959755</v>
+        <v>2513.0083070286</v>
       </c>
       <c r="O8" t="n">
-        <v>2929.36208237686</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="X8" t="n">
-        <v>2528.718684545813</v>
+        <v>3340.821462229158</v>
       </c>
       <c r="Y8" t="n">
-        <v>2127.782011493903</v>
+        <v>2939.884789177248</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>251.4000992101705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K9" t="n">
-        <v>707.2063554754692</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L9" t="n">
-        <v>707.2063554754692</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="M9" t="n">
-        <v>1030.214857425781</v>
+        <v>1528.939701226637</v>
       </c>
       <c r="N9" t="n">
-        <v>1755.231972814054</v>
+        <v>1528.939701226637</v>
       </c>
       <c r="O9" t="n">
-        <v>1755.231972814054</v>
+        <v>1528.939701226637</v>
       </c>
       <c r="P9" t="n">
-        <v>1755.231972814054</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>506.8148045070764</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C10" t="n">
-        <v>506.8148045070764</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D10" t="n">
-        <v>506.8148045070764</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E10" t="n">
-        <v>506.8148045070764</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F10" t="n">
-        <v>342.1836786176676</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G10" t="n">
-        <v>174.9332875432111</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H10" t="n">
-        <v>174.9332875432111</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T10" t="n">
-        <v>1348.437399245089</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U10" t="n">
-        <v>1065.639251791214</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V10" t="n">
-        <v>791.7535067307356</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W10" t="n">
-        <v>512.6838422396099</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X10" t="n">
-        <v>506.8148045070764</v>
+        <v>1575.485172533713</v>
       </c>
       <c r="Y10" t="n">
-        <v>506.8148045070764</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1581.216175848979</v>
+        <v>1261.129779495428</v>
       </c>
       <c r="C11" t="n">
-        <v>1581.216175848979</v>
+        <v>851.0051888086983</v>
       </c>
       <c r="D11" t="n">
-        <v>1176.75224594204</v>
+        <v>446.5412589017589</v>
       </c>
       <c r="E11" t="n">
-        <v>1176.75224594204</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F11" t="n">
-        <v>778.224023126987</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G11" t="n">
-        <v>369.4957390198192</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>164.7778083202771</v>
       </c>
       <c r="K11" t="n">
-        <v>123.1055953709714</v>
+        <v>702.9373094293167</v>
       </c>
       <c r="L11" t="n">
-        <v>835.6969951832094</v>
+        <v>1415.528709241555</v>
       </c>
       <c r="M11" t="n">
-        <v>1560.714110571482</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="N11" t="n">
-        <v>2285.731225959755</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O11" t="n">
-        <v>2929.36208237686</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P11" t="n">
-        <v>2929.36208237686</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T11" t="n">
-        <v>2571.87452311782</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U11" t="n">
-        <v>2314.81403137733</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="V11" t="n">
-        <v>1964.976476713811</v>
+        <v>2856.691330907707</v>
       </c>
       <c r="W11" t="n">
-        <v>1581.216175848979</v>
+        <v>2472.931030042875</v>
       </c>
       <c r="X11" t="n">
-        <v>1581.216175848979</v>
+        <v>2072.287632211828</v>
       </c>
       <c r="Y11" t="n">
-        <v>1581.216175848979</v>
+        <v>1671.350959159918</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L12" t="n">
-        <v>58.5872416475372</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="M12" t="n">
-        <v>676.1022315638701</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="N12" t="n">
-        <v>1401.119346952143</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.076437498037</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S13" t="n">
-        <v>1316.321651823697</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T13" t="n">
-        <v>1076.772912800399</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U13" t="n">
-        <v>793.9747653465236</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V13" t="n">
-        <v>520.0890202860455</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W13" t="n">
-        <v>241.0193557949199</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X13" t="n">
-        <v>58.5872416475372</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1292.809867707957</v>
+        <v>1261.129779495428</v>
       </c>
       <c r="C14" t="n">
-        <v>1292.809867707957</v>
+        <v>851.0051888086983</v>
       </c>
       <c r="D14" t="n">
-        <v>888.3459378010175</v>
+        <v>446.5412589017589</v>
       </c>
       <c r="E14" t="n">
-        <v>888.3459378010175</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F14" t="n">
-        <v>467.315525754705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K14" t="n">
-        <v>58.5872416475372</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L14" t="n">
-        <v>771.1786414597752</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M14" t="n">
-        <v>1496.195756848048</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N14" t="n">
-        <v>1964.570219164463</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="O14" t="n">
-        <v>2608.201075581568</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P14" t="n">
-        <v>2608.201075581568</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.36208237686</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U14" t="n">
-        <v>2929.36208237686</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="V14" t="n">
-        <v>2888.371419120235</v>
+        <v>2856.691330907707</v>
       </c>
       <c r="W14" t="n">
-        <v>2504.611118255404</v>
+        <v>2472.931030042875</v>
       </c>
       <c r="X14" t="n">
-        <v>2103.967720424356</v>
+        <v>2072.287632211828</v>
       </c>
       <c r="Y14" t="n">
-        <v>1703.031047372446</v>
+        <v>1671.350959159918</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M15" t="n">
-        <v>783.60435703581</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N15" t="n">
-        <v>1508.621472424083</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>527.81251781937</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>499.1640629946043</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X16" t="n">
-        <v>58.5872416475372</v>
+        <v>527.81251781937</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>527.81251781937</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5543,19 +5545,19 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>3314.038978003258</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
         <v>2959.412569640574</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>137.1261518932039</v>
+        <v>402.3457975622561</v>
       </c>
       <c r="C19" t="n">
-        <v>137.1261518932039</v>
+        <v>402.3457975622561</v>
       </c>
       <c r="D19" t="n">
-        <v>137.1261518932039</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E19" t="n">
-        <v>137.1261518932039</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F19" t="n">
-        <v>137.1261518932039</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G19" t="n">
-        <v>137.1261518932039</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5701,22 +5703,22 @@
         <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U19" t="n">
-        <v>828.6312213896092</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V19" t="n">
-        <v>828.6312213896092</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="W19" t="n">
-        <v>549.5615568984836</v>
+        <v>640.6896597025727</v>
       </c>
       <c r="X19" t="n">
-        <v>549.5615568984836</v>
+        <v>402.3457975622561</v>
       </c>
       <c r="Y19" t="n">
-        <v>324.8258582872483</v>
+        <v>402.3457975622561</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5792,10 +5794,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3314.038978003258</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="21">
@@ -5835,13 +5837,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3132.785987910289</v>
+        <v>643.6436162255084</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>643.6436162255084</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>643.6436162255084</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>643.6436162255084</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4150.971659063151</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>3868.173511609275</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V22" t="n">
-        <v>3594.287766548796</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W22" t="n">
-        <v>3371.129850050606</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X22" t="n">
-        <v>3132.785987910289</v>
+        <v>831.3433226195527</v>
       </c>
       <c r="Y22" t="n">
-        <v>3132.785987910289</v>
+        <v>831.3433226195527</v>
       </c>
     </row>
     <row r="23">
@@ -5972,16 +5974,16 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>899.2322418529996</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6072,13 +6074,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>920.0142945366232</v>
+        <v>4105.773792315753</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0142945366232</v>
+        <v>3934.680419877469</v>
       </c>
       <c r="D25" t="n">
-        <v>851.989530876386</v>
+        <v>3775.185775200379</v>
       </c>
       <c r="E25" t="n">
-        <v>691.0787157447054</v>
+        <v>3614.274960068698</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T25" t="n">
-        <v>1383.093855288175</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U25" t="n">
-        <v>1383.093855288175</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V25" t="n">
-        <v>1383.093855288175</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W25" t="n">
-        <v>1383.093855288175</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.749993147859</v>
+        <v>4423.841022390823</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.0142945366232</v>
+        <v>4293.473498709797</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G26" t="n">
-        <v>179.5954603735497</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.369875986873</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="U28" t="n">
-        <v>1537.369875986873</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="V28" t="n">
-        <v>1537.369875986873</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="W28" t="n">
-        <v>1537.369875986873</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="X28" t="n">
-        <v>1537.369875986873</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>4222.119838211426</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6545,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>354.5244442569915</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>354.5244442569915</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>354.5244442569915</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1111.429368843485</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6643,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>1111.429368843485</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>1111.429368843485</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>1111.429368843485</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>1111.429368843485</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>1111.429368843485</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2512.458907120301</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6783,19 +6785,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>3727.402593048687</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>3556.309220610403</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>3396.814575933313</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>3235.903760801633</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T34" t="n">
-        <v>1436.250826191383</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U34" t="n">
-        <v>1436.250826191383</v>
+        <v>4139.837998053967</v>
       </c>
       <c r="V34" t="n">
-        <v>1436.250826191383</v>
+        <v>4139.837998053967</v>
       </c>
       <c r="W34" t="n">
-        <v>1436.250826191383</v>
+        <v>4139.837998053967</v>
       </c>
       <c r="X34" t="n">
-        <v>1436.250826191383</v>
+        <v>4139.837998053967</v>
       </c>
       <c r="Y34" t="n">
-        <v>1370.277254385804</v>
+        <v>3915.102299442731</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>899.2322418529996</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
         <v>899.2322418529996</v>
@@ -6977,10 +6979,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>2959.412569640574</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7019,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M36" t="n">
-        <v>754.331869609911</v>
+        <v>1392.027034650488</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1392.027034650488</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1182.57754799176</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C37" t="n">
-        <v>1011.484175553476</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T37" t="n">
-        <v>1350.978107866783</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U37" t="n">
-        <v>1350.978107866783</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V37" t="n">
-        <v>1350.978107866783</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W37" t="n">
-        <v>1350.978107866783</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X37" t="n">
-        <v>1350.978107866783</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y37" t="n">
-        <v>1350.978107866783</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7202,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>359.19719878084</v>
+        <v>3956.166337121209</v>
       </c>
       <c r="C40" t="n">
-        <v>359.19719878084</v>
+        <v>3785.072964682925</v>
       </c>
       <c r="D40" t="n">
-        <v>359.19719878084</v>
+        <v>3625.578320005835</v>
       </c>
       <c r="E40" t="n">
-        <v>359.19719878084</v>
+        <v>3464.667504874155</v>
       </c>
       <c r="F40" t="n">
-        <v>359.19719878084</v>
+        <v>3300.036378984746</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I40" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J40" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K40" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L40" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M40" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N40" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O40" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P40" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U40" t="n">
-        <v>1562.93187547804</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V40" t="n">
-        <v>1289.046130417562</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W40" t="n">
-        <v>1009.976465926436</v>
+        <v>4606.945604266805</v>
       </c>
       <c r="X40" t="n">
-        <v>771.6326037861197</v>
+        <v>4368.601742126489</v>
       </c>
       <c r="Y40" t="n">
-        <v>546.8969051748844</v>
+        <v>4143.866043515253</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1298.470528487747</v>
+        <v>1302.64465330407</v>
       </c>
       <c r="C41" t="n">
-        <v>888.3459378010175</v>
+        <v>892.5200626173399</v>
       </c>
       <c r="D41" t="n">
-        <v>888.3459378010175</v>
+        <v>488.0561327104004</v>
       </c>
       <c r="E41" t="n">
-        <v>888.3459378010175</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F41" t="n">
-        <v>467.315525754705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>184.662620324034</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K41" t="n">
-        <v>722.8221214330736</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L41" t="n">
-        <v>1435.413521245312</v>
+        <v>786.3073170395352</v>
       </c>
       <c r="M41" t="n">
-        <v>1435.413521245312</v>
+        <v>1562.625908031289</v>
       </c>
       <c r="N41" t="n">
-        <v>1435.413521245312</v>
+        <v>2315.806924669907</v>
       </c>
       <c r="O41" t="n">
-        <v>2079.044377662417</v>
+        <v>2959.437781087012</v>
       </c>
       <c r="P41" t="n">
-        <v>2608.201075581568</v>
+        <v>3488.594479006164</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T41" t="n">
-        <v>2843.226236732497</v>
+        <v>3505.104251120357</v>
       </c>
       <c r="U41" t="n">
-        <v>2843.226236732497</v>
+        <v>3248.043759379867</v>
       </c>
       <c r="V41" t="n">
-        <v>2493.388682068978</v>
+        <v>2898.206204716348</v>
       </c>
       <c r="W41" t="n">
-        <v>2109.628381204147</v>
+        <v>2514.445903851517</v>
       </c>
       <c r="X41" t="n">
-        <v>2109.628381204147</v>
+        <v>2113.802506020469</v>
       </c>
       <c r="Y41" t="n">
-        <v>1708.691708152237</v>
+        <v>1712.865832968559</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M42" t="n">
-        <v>783.60435703581</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N42" t="n">
-        <v>1401.119346952143</v>
+        <v>1790.351090033482</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>613.6829213181062</v>
+        <v>952.3355467025513</v>
       </c>
       <c r="C43" t="n">
-        <v>613.6829213181062</v>
+        <v>952.3355467025513</v>
       </c>
       <c r="D43" t="n">
-        <v>551.379573743083</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E43" t="n">
-        <v>390.4687586114026</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F43" t="n">
-        <v>225.8376327219938</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G43" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H43" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S43" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T43" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U43" t="n">
-        <v>1305.187990814512</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V43" t="n">
-        <v>1305.187990814512</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W43" t="n">
-        <v>1026.118326323386</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X43" t="n">
-        <v>1026.118326323386</v>
+        <v>1364.770951707831</v>
       </c>
       <c r="Y43" t="n">
-        <v>801.3826277121506</v>
+        <v>1140.035253096596</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>726.9024845605729</v>
+        <v>1727.939419550611</v>
       </c>
       <c r="C44" t="n">
-        <v>316.777893873843</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="D44" t="n">
-        <v>58.5872416475372</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E44" t="n">
-        <v>58.5872416475372</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F44" t="n">
-        <v>58.5872416475372</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K44" t="n">
-        <v>123.1055953709714</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L44" t="n">
-        <v>835.6969951832094</v>
+        <v>1415.528709241555</v>
       </c>
       <c r="M44" t="n">
-        <v>1560.714110571482</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="N44" t="n">
-        <v>2285.731225959755</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O44" t="n">
-        <v>2929.36208237686</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P44" t="n">
-        <v>2929.36208237686</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U44" t="n">
-        <v>2672.30159063637</v>
+        <v>3428.735369624367</v>
       </c>
       <c r="V44" t="n">
-        <v>2322.464035972851</v>
+        <v>3078.897814960848</v>
       </c>
       <c r="W44" t="n">
-        <v>1938.70373510802</v>
+        <v>2695.137514096016</v>
       </c>
       <c r="X44" t="n">
-        <v>1538.060337276972</v>
+        <v>2294.494116264969</v>
       </c>
       <c r="Y44" t="n">
-        <v>1137.123664225062</v>
+        <v>2138.1605992151</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K45" t="n">
-        <v>58.5872416475372</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L45" t="n">
-        <v>58.5872416475372</v>
+        <v>655.2816091150194</v>
       </c>
       <c r="M45" t="n">
-        <v>783.60435703581</v>
+        <v>655.2816091150194</v>
       </c>
       <c r="N45" t="n">
-        <v>1508.621472424083</v>
+        <v>1528.939701226637</v>
       </c>
       <c r="O45" t="n">
-        <v>2105.076437498037</v>
+        <v>1528.939701226637</v>
       </c>
       <c r="P45" t="n">
-        <v>2105.076437498037</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>550.0860738945912</v>
+        <v>1013.44231233389</v>
       </c>
       <c r="C46" t="n">
-        <v>378.9927014563077</v>
+        <v>842.3489398956069</v>
       </c>
       <c r="D46" t="n">
-        <v>219.4980567792177</v>
+        <v>682.8542952185169</v>
       </c>
       <c r="E46" t="n">
-        <v>58.5872416475372</v>
+        <v>521.9434800868363</v>
       </c>
       <c r="F46" t="n">
-        <v>58.5872416475372</v>
+        <v>357.3123541974276</v>
       </c>
       <c r="G46" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="H46" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R46" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S46" t="n">
-        <v>1316.321651823697</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1076.772912800399</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U46" t="n">
-        <v>823.9718189550692</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V46" t="n">
-        <v>550.0860738945912</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W46" t="n">
-        <v>550.0860738945912</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X46" t="n">
-        <v>550.0860738945912</v>
+        <v>1425.87771733917</v>
       </c>
       <c r="Y46" t="n">
-        <v>550.0860738945912</v>
+        <v>1201.142018727935</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>632.7318453389136</v>
@@ -7985,13 +7987,13 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M2" t="n">
-        <v>755.1408068768923</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>311.297161113964</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
@@ -8000,7 +8002,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,25 +8057,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>266.54231935717</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>544.3669693031586</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8213,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>159.7061499059665</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>690.062948947329</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
         <v>743.321953824879</v>
@@ -8237,7 +8239,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,25 +8297,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>176.3463909916617</v>
       </c>
       <c r="M6" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P6" t="n">
-        <v>196.3290378398291</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8453,22 +8455,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7318453389136</v>
+        <v>288.3297051870488</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>347.2053436516589</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8529,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>383.8354978296413</v>
+        <v>399.3111077937237</v>
       </c>
       <c r="N9" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>165.3052995080352</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3064439393123</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8769,22 +8771,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>681.3167988054204</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>429.3564034215992</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>566.0178082479479</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>743.321953824879</v>
+        <v>578.550660517026</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
@@ -9012,13 +9014,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>789.9048043326325</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N15" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>660.231241700964</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,16 +9485,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9720,16 +9722,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>529.7246381472005</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9951,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10191,25 +10193,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>319.7457288112504</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10431,22 +10433,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>247.7181192045195</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10665,25 +10667,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>741.5205988334646</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>459.6316751683347</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>200.6724586833047</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11078,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>289.2271199129839</v>
       </c>
       <c r="R41" t="n">
         <v>87.31214281472352</v>
@@ -11145,13 +11147,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>676.9459084607529</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>154.3064439393123</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>815.2746908024792</v>
+        <v>650.5033974946264</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>87.31214281472352</v>
@@ -11376,28 +11378,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>183.1442567627921</v>
       </c>
       <c r="M45" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>660.231241700964</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>41.09972507055517</v>
       </c>
       <c r="F11" t="n">
-        <v>22.27716733894692</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300461</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="14">
@@ -23495,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>41.09972507055517</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23546,13 +23548,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>305.7584224928255</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>141.0204684373826</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23668,10 +23670,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300461</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23783,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>222.4997066824607</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>45.84716204233382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23905,7 +23907,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>104.6677509820427</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23941,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>124.2104577528566</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23984,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>45.84716204233382</v>
+        <v>49.19646844041381</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24136,16 +24138,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>46.96074852400506</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>55.35263051300589</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24212,10 +24214,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>90.55518220668422</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>93.42449318090732</v>
       </c>
     </row>
     <row r="26">
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>70.43669735679242</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -24667,7 +24669,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.06664624006493</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>308.5558614412299</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>70.43669735679175</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>36.36515802722619</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>60.89821946808458</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25141,7 +25143,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>157.1745055375995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25160,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25217,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>45.55681957368</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.10615505383078</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -25400,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>222.4997066824607</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>220.8565543342384</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>221.5920803845233</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25631,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -25679,10 +25681,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>134.7099320246907</v>
+        <v>41.099725070555</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>96.21938413104614</v>
+        <v>39.22463990372289</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>144.8105449038273</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>242.1571244420205</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>29.69708307246029</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>60.49569797502582</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>799488.5270103924</v>
+        <v>803958.8214218542</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>799488.5270103924</v>
+        <v>803958.8214218542</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>799488.5270103924</v>
+        <v>803958.8214218542</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>557374.445097053</v>
+        <v>630485.6631670697</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>557374.445097053</v>
+        <v>630485.6631670694</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>724856.1061282281</v>
+        <v>724856.106128228</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>724856.106128228</v>
+        <v>724856.1061282281</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>724856.1061282279</v>
+        <v>724856.106128228</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>724856.1061282281</v>
+        <v>724856.106128228</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>724856.1061282284</v>
+        <v>724856.106128228</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>557374.445097053</v>
+        <v>630485.6631670694</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>557374.445097053</v>
+        <v>630485.6631670697</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26319,22 @@
         <v>374629.5039746511</v>
       </c>
       <c r="D2" t="n">
-        <v>374629.5039746509</v>
+        <v>374629.5039746512</v>
       </c>
       <c r="E2" t="n">
-        <v>256148.1447404637</v>
+        <v>289738.3839776288</v>
       </c>
       <c r="F2" t="n">
-        <v>256148.1447404637</v>
+        <v>289738.3839776288</v>
       </c>
       <c r="G2" t="n">
-        <v>333095.967665358</v>
+        <v>333095.9676653581</v>
       </c>
       <c r="H2" t="n">
-        <v>333095.967665358</v>
+        <v>333095.9676653582</v>
       </c>
       <c r="I2" t="n">
-        <v>333095.967665358</v>
+        <v>333095.9676653581</v>
       </c>
       <c r="J2" t="n">
         <v>333095.9676653582</v>
@@ -26341,19 +26343,19 @@
         <v>333095.9676653582</v>
       </c>
       <c r="L2" t="n">
+        <v>333095.9676653582</v>
+      </c>
+      <c r="M2" t="n">
+        <v>333095.9676653582</v>
+      </c>
+      <c r="N2" t="n">
         <v>333095.967665358</v>
       </c>
-      <c r="M2" t="n">
-        <v>333095.967665358</v>
-      </c>
-      <c r="N2" t="n">
-        <v>333095.9676653582</v>
-      </c>
       <c r="O2" t="n">
-        <v>256148.1447404637</v>
+        <v>289738.3839776289</v>
       </c>
       <c r="P2" t="n">
-        <v>256148.1447404637</v>
+        <v>289738.3839776287</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>308798.7416120438</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>66903.39635363265</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>241091.5930877367</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152083.7444815841</v>
+        <v>123300.4837081755</v>
       </c>
       <c r="C4" t="n">
-        <v>152083.7444815841</v>
+        <v>123300.4837081755</v>
       </c>
       <c r="D4" t="n">
-        <v>152083.7444815842</v>
+        <v>123300.4837081755</v>
       </c>
       <c r="E4" t="n">
-        <v>34474.59853473143</v>
+        <v>39034.29883442245</v>
       </c>
       <c r="F4" t="n">
-        <v>34474.59853473143</v>
+        <v>39034.29883442246</v>
       </c>
       <c r="G4" t="n">
         <v>44919.86535090265</v>
       </c>
       <c r="H4" t="n">
+        <v>44919.86535090263</v>
+      </c>
+      <c r="I4" t="n">
         <v>44919.86535090265</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>44919.86535090263</v>
+      </c>
+      <c r="K4" t="n">
         <v>44919.86535090264</v>
       </c>
-      <c r="J4" t="n">
-        <v>44919.86535090265</v>
-      </c>
-      <c r="K4" t="n">
-        <v>44919.86535090265</v>
-      </c>
       <c r="L4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="M4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="N4" t="n">
         <v>44919.86535090265</v>
       </c>
       <c r="O4" t="n">
-        <v>34474.59853473143</v>
+        <v>39034.29883442245</v>
       </c>
       <c r="P4" t="n">
-        <v>34474.59853473143</v>
+        <v>39034.29883442245</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-101032.2964421565</v>
+        <v>-147121.4184383141</v>
       </c>
       <c r="C6" t="n">
-        <v>144391.8558409387</v>
+        <v>161677.3231737298</v>
       </c>
       <c r="D6" t="n">
-        <v>144391.8558409385</v>
+        <v>161677.3231737298</v>
       </c>
       <c r="E6" t="n">
-        <v>177147.242553604</v>
+        <v>194679.9880504605</v>
       </c>
       <c r="F6" t="n">
-        <v>177147.242553604</v>
+        <v>194679.9880504605</v>
       </c>
       <c r="G6" t="n">
-        <v>98575.70763746811</v>
+        <v>150407.4957159495</v>
       </c>
       <c r="H6" t="n">
-        <v>217310.8920695821</v>
+        <v>217310.8920695822</v>
       </c>
       <c r="I6" t="n">
         <v>217310.8920695821</v>
       </c>
       <c r="J6" t="n">
-        <v>25698.38889922938</v>
+        <v>-23780.70101815445</v>
       </c>
       <c r="K6" t="n">
         <v>217310.8920695822</v>
       </c>
       <c r="L6" t="n">
-        <v>217310.8920695821</v>
+        <v>217310.8920695822</v>
       </c>
       <c r="M6" t="n">
-        <v>217310.8920695821</v>
+        <v>217310.8920695822</v>
       </c>
       <c r="N6" t="n">
-        <v>217310.8920695822</v>
+        <v>217310.892069582</v>
       </c>
       <c r="O6" t="n">
-        <v>177147.242553604</v>
+        <v>194679.9880504606</v>
       </c>
       <c r="P6" t="n">
-        <v>177147.242553604</v>
+        <v>194679.9880504604</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>27.54412780087472</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>12.38802852210824</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -27549,7 +27551,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>177.2644348609019</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>220.7545235571748</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>339.0578716543387</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>41.74734910992152</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>113.3939867979618</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>62.29037340415934</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -27822,13 +27824,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>81.20494868399078</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>55.1123087083954</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>230.1500761637052</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>543.5954556656965</v>
@@ -34705,13 +34707,13 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M2" t="n">
-        <v>661.8505824198468</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>218.1073854881809</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>491.1735759094087</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>86.38255857265851</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>594.5775508844841</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
         <v>650.1321781990958</v>
@@ -34957,7 +34959,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>120.2318671808126</v>
       </c>
       <c r="M6" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P6" t="n">
-        <v>142.0694028370254</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>543.5954556656965</v>
+        <v>199.1933155138316</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>253.9151191946135</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>326.2712140912238</v>
+        <v>341.7468240553063</v>
       </c>
       <c r="N9" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>91.98170817472726</v>
       </c>
       <c r="K11" t="n">
-        <v>65.17005426609514</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>623.7525150670029</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>371.6049244215992</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>473.1055174913286</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>650.1321781990958</v>
+        <v>485.3608848912428</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>732.340520594215</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N15" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>602.479762700964</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36440,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>263.919946026635</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>194.5247258107695</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>401.8801961683346</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>127.3488673499968</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37798,7 +37800,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>199.1933155138319</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>623.7525150670029</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>65.17005426609514</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>719.7892927396343</v>
+        <v>555.0179994317815</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>127.029732951943</v>
       </c>
       <c r="M45" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>602.479762700964</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1164715.832887883</v>
+        <v>1163217.145578752</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5562152.400446149</v>
+        <v>5562152.400446147</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8334161.934462929</v>
+        <v>8334161.93446293</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>116.498451392199</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -676,7 +676,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>295.4113838764509</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>135.844783484049</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.733818067948137</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>362.8936521561746</v>
+        <v>28.41293448183665</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>103.2875137595527</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>266.2723283900672</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1147,13 +1147,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>58.00078810674433</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>341.5246551443416</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1293,25 +1293,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>42.43741174507676</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1372,25 +1372,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>230.1229509953216</v>
       </c>
       <c r="E11" t="n">
-        <v>369.0970882577171</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -1435,7 +1435,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>33.99138556266573</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1615,19 +1615,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>369.0970882577171</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>28.36197027651802</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>123.8394724344234</v>
+        <v>123.2715627317515</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>85.2543260913488</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>152.0685100933578</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>43.42340976889702</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2098,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>347.730837880977</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>116.0240661065096</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>77.02051626126826</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>59.82422708687625</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>37.78331767565417</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
@@ -2377,7 +2377,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>129.0638484442156</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>304.7162152260364</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2620,7 +2620,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>358.7938392237627</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>166.7165542762725</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>4.062597499927212</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>102.0865951624301</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3277,7 +3277,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>59.82422708687625</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>351.080144279057</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>76.43104772188485</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -3483,16 +3483,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>180.6077930059077</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>59.82422708687625</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -3523,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>39.93142548241837</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,19 +3663,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>54.68688746169106</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>56.57220635936351</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3751,13 +3751,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>178.8846941420548</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>118.6750583265962</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>80.1487404325828</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -3982,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -4036,16 +4036,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>83.68546192317669</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>154.7701818793703</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>109.4861390580111</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>175.4647255438876</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2517.150449389417</v>
+        <v>2237.214222252493</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.025858702687</v>
+        <v>2119.539018826029</v>
       </c>
       <c r="D2" t="n">
-        <v>1702.561928795748</v>
+        <v>1715.075088919089</v>
       </c>
       <c r="E2" t="n">
-        <v>1288.221713312645</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F2" t="n">
-        <v>867.1913012663322</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G2" t="n">
-        <v>458.4630171591643</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H2" t="n">
         <v>160.067679910224</v>
@@ -4330,52 +4330,52 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>327.9013886950514</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K2" t="n">
-        <v>866.0608898040909</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L2" t="n">
-        <v>1578.652289616329</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M2" t="n">
-        <v>2354.970880608083</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="N2" t="n">
-        <v>3108.151897246701</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O2" t="n">
-        <v>3324.07820888</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P2" t="n">
-        <v>3324.07820888</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q2" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R2" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>3550.514786158958</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T2" t="n">
-        <v>3328.308302105817</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U2" t="n">
-        <v>3328.308302105817</v>
+        <v>3428.735369624367</v>
       </c>
       <c r="V2" t="n">
-        <v>3328.308302105817</v>
+        <v>3428.735369624367</v>
       </c>
       <c r="W2" t="n">
-        <v>3328.308302105817</v>
+        <v>3044.975068759536</v>
       </c>
       <c r="X2" t="n">
-        <v>3328.308302105817</v>
+        <v>2644.331670928488</v>
       </c>
       <c r="Y2" t="n">
-        <v>2927.371629053907</v>
+        <v>2243.394997876578</v>
       </c>
     </row>
     <row r="3">
@@ -4412,16 +4412,16 @@
         <v>266.5287747899304</v>
       </c>
       <c r="K3" t="n">
-        <v>475.1381459967595</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L3" t="n">
-        <v>475.1381459967595</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="M3" t="n">
-        <v>475.1381459967595</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="N3" t="n">
-        <v>475.1381459967595</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="O3" t="n">
         <v>1179.095236542654</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339.6694183175143</v>
+        <v>729.8458753637599</v>
       </c>
       <c r="C4" t="n">
-        <v>339.6694183175143</v>
+        <v>558.7525029254764</v>
       </c>
       <c r="D4" t="n">
-        <v>339.6694183175143</v>
+        <v>399.2578582483864</v>
       </c>
       <c r="E4" t="n">
-        <v>339.6694183175143</v>
+        <v>238.3470431167059</v>
       </c>
       <c r="F4" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G4" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H4" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I4" t="n">
         <v>73.71591722729714</v>
@@ -4512,28 +4512,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1603.114813848147</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S4" t="n">
-        <v>1416.723045728058</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="T4" t="n">
-        <v>1177.17430670476</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="U4" t="n">
-        <v>894.3761592508838</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="V4" t="n">
-        <v>620.4904141904058</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="W4" t="n">
-        <v>341.4207496992801</v>
+        <v>1380.625142509356</v>
       </c>
       <c r="X4" t="n">
-        <v>341.4207496992801</v>
+        <v>1142.281280369039</v>
       </c>
       <c r="Y4" t="n">
-        <v>339.6694183175143</v>
+        <v>917.5455817578043</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2090.234309952579</v>
+        <v>2149.635259225628</v>
       </c>
       <c r="C5" t="n">
-        <v>1680.109719265849</v>
+        <v>1739.510668538898</v>
       </c>
       <c r="D5" t="n">
-        <v>1275.645789358909</v>
+        <v>1335.046738631959</v>
       </c>
       <c r="E5" t="n">
-        <v>861.3055738758062</v>
+        <v>920.7065231488555</v>
       </c>
       <c r="F5" t="n">
-        <v>440.2751618294938</v>
+        <v>499.676111102543</v>
       </c>
       <c r="G5" t="n">
-        <v>73.71591722729714</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H5" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I5" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>73.71591722729714</v>
+        <v>187.9153826734129</v>
       </c>
       <c r="K5" t="n">
-        <v>73.71591722729714</v>
+        <v>726.0748837824524</v>
       </c>
       <c r="L5" t="n">
-        <v>662.3476926029365</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="M5" t="n">
         <v>1438.66628359469</v>
@@ -4594,25 +4594,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T5" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U5" t="n">
-        <v>3685.795861364857</v>
+        <v>3293.454294418468</v>
       </c>
       <c r="V5" t="n">
-        <v>3685.795861364857</v>
+        <v>2943.616739754949</v>
       </c>
       <c r="W5" t="n">
-        <v>3302.035560500025</v>
+        <v>2559.856438890117</v>
       </c>
       <c r="X5" t="n">
-        <v>2901.392162668978</v>
+        <v>2559.856438890117</v>
       </c>
       <c r="Y5" t="n">
-        <v>2500.455489617068</v>
+        <v>2559.856438890117</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K6" t="n">
-        <v>73.71591722729714</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L6" t="n">
-        <v>192.7454657363016</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="M6" t="n">
-        <v>192.7454657363016</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="N6" t="n">
-        <v>1066.40355784792</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="O6" t="n">
-        <v>1770.360648393814</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="P6" t="n">
-        <v>1770.360648393814</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q6" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R6" t="n">
         <v>2120.205113077797</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>673.2658822114255</v>
+        <v>404.3039343426706</v>
       </c>
       <c r="C7" t="n">
-        <v>502.172509773142</v>
+        <v>233.2105619043871</v>
       </c>
       <c r="D7" t="n">
-        <v>342.677865096052</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E7" t="n">
-        <v>342.677865096052</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F7" t="n">
-        <v>178.0467392066433</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G7" t="n">
         <v>73.71591722729714</v>
@@ -4761,16 +4761,16 @@
         <v>1603.114813848147</v>
       </c>
       <c r="V7" t="n">
-        <v>1603.114813848147</v>
+        <v>1334.152865979393</v>
       </c>
       <c r="W7" t="n">
-        <v>1324.045149357022</v>
+        <v>1055.083201488267</v>
       </c>
       <c r="X7" t="n">
-        <v>1085.701287216705</v>
+        <v>816.7393393479504</v>
       </c>
       <c r="Y7" t="n">
-        <v>860.9655886054699</v>
+        <v>592.0036407367151</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2529.663609512759</v>
+        <v>1786.949600070423</v>
       </c>
       <c r="C8" t="n">
-        <v>2119.539018826029</v>
+        <v>1376.825009383693</v>
       </c>
       <c r="D8" t="n">
-        <v>1715.075088919089</v>
+        <v>972.3610794767537</v>
       </c>
       <c r="E8" t="n">
-        <v>1300.734873435986</v>
+        <v>558.0208639936504</v>
       </c>
       <c r="F8" t="n">
-        <v>879.7044613896738</v>
+        <v>136.990451947338</v>
       </c>
       <c r="G8" t="n">
-        <v>470.976177282506</v>
+        <v>132.3025718805742</v>
       </c>
       <c r="H8" t="n">
-        <v>160.067679910224</v>
+        <v>132.3025718805742</v>
       </c>
       <c r="I8" t="n">
         <v>73.71591722729714</v>
@@ -4807,19 +4807,19 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K8" t="n">
-        <v>270.9172995859905</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L8" t="n">
-        <v>983.5086993982285</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M8" t="n">
-        <v>1759.827290389982</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N8" t="n">
-        <v>2513.0083070286</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O8" t="n">
-        <v>3156.639163445705</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P8" t="n">
         <v>3685.795861364857</v>
@@ -4831,25 +4831,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T8" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U8" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="V8" t="n">
-        <v>3685.795861364857</v>
+        <v>2978.470747442298</v>
       </c>
       <c r="W8" t="n">
-        <v>3685.795861364857</v>
+        <v>2594.710446577466</v>
       </c>
       <c r="X8" t="n">
-        <v>3340.821462229158</v>
+        <v>2194.067048746419</v>
       </c>
       <c r="Y8" t="n">
-        <v>2939.884789177248</v>
+        <v>1793.130375694509</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K9" t="n">
-        <v>529.5221734925958</v>
+        <v>475.1381459967595</v>
       </c>
       <c r="L9" t="n">
-        <v>1190.610345411884</v>
+        <v>475.1381459967595</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.939701226637</v>
+        <v>475.1381459967595</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.939701226637</v>
+        <v>475.1381459967595</v>
       </c>
       <c r="O9" t="n">
-        <v>1528.939701226637</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P9" t="n">
-        <v>2090.645593715167</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q9" t="n">
         <v>2090.645593715167</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1163.049767528434</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C10" t="n">
-        <v>991.9563950901502</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D10" t="n">
-        <v>832.4617504130601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E10" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F10" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G10" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H10" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I10" t="n">
         <v>73.71591722729714</v>
@@ -4992,22 +4992,22 @@
         <v>1603.114813848147</v>
       </c>
       <c r="T10" t="n">
-        <v>1603.114813848147</v>
+        <v>1560.248741378373</v>
       </c>
       <c r="U10" t="n">
-        <v>1603.114813848147</v>
+        <v>1277.450593924497</v>
       </c>
       <c r="V10" t="n">
-        <v>1603.114813848147</v>
+        <v>1003.564848864019</v>
       </c>
       <c r="W10" t="n">
-        <v>1603.114813848147</v>
+        <v>724.4951843728934</v>
       </c>
       <c r="X10" t="n">
-        <v>1575.485172533713</v>
+        <v>486.1513222325768</v>
       </c>
       <c r="Y10" t="n">
-        <v>1350.749473922478</v>
+        <v>261.4156236213415</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1261.129779495428</v>
+        <v>1526.492102120577</v>
       </c>
       <c r="C11" t="n">
-        <v>851.0051888086983</v>
+        <v>1526.492102120577</v>
       </c>
       <c r="D11" t="n">
-        <v>446.5412589017589</v>
+        <v>1294.044676872777</v>
       </c>
       <c r="E11" t="n">
-        <v>73.71591722729714</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="F11" t="n">
-        <v>73.71591722729714</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G11" t="n">
-        <v>73.71591722729714</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H11" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I11" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>164.7778083202771</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K11" t="n">
-        <v>702.9373094293167</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L11" t="n">
-        <v>1415.528709241555</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M11" t="n">
-        <v>2191.847300233308</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N11" t="n">
-        <v>2191.847300233308</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="O11" t="n">
-        <v>2835.478156650413</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P11" t="n">
-        <v>3364.634854569565</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q11" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R11" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T11" t="n">
-        <v>3463.589377311716</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U11" t="n">
-        <v>3206.528885571226</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V11" t="n">
-        <v>2856.691330907707</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W11" t="n">
-        <v>2472.931030042875</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="X11" t="n">
-        <v>2072.287632211828</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="Y11" t="n">
-        <v>1671.350959159918</v>
+        <v>1936.713281785066</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K12" t="n">
-        <v>529.5221734925958</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L12" t="n">
-        <v>1190.610345411884</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="M12" t="n">
-        <v>1190.610345411884</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="N12" t="n">
-        <v>1190.610345411884</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="O12" t="n">
-        <v>1558.499220589267</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P12" t="n">
         <v>2120.205113077797</v>
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1261.129779495428</v>
+        <v>2108.633197466446</v>
       </c>
       <c r="C14" t="n">
-        <v>851.0051888086983</v>
+        <v>1698.508606779717</v>
       </c>
       <c r="D14" t="n">
-        <v>446.5412589017589</v>
+        <v>1294.044676872777</v>
       </c>
       <c r="E14" t="n">
-        <v>73.71591722729714</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="F14" t="n">
-        <v>73.71591722729714</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G14" t="n">
-        <v>73.71591722729714</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H14" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I14" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>327.9013886950514</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K14" t="n">
-        <v>866.0608898040909</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L14" t="n">
-        <v>1578.652289616329</v>
+        <v>786.3073170395352</v>
       </c>
       <c r="M14" t="n">
-        <v>2354.970880608083</v>
+        <v>1562.625908031289</v>
       </c>
       <c r="N14" t="n">
-        <v>2354.970880608083</v>
+        <v>2315.806924669907</v>
       </c>
       <c r="O14" t="n">
-        <v>2835.478156650413</v>
+        <v>2959.437781087012</v>
       </c>
       <c r="P14" t="n">
-        <v>3364.634854569565</v>
+        <v>3488.594479006164</v>
       </c>
       <c r="Q14" t="n">
         <v>3685.795861364857</v>
@@ -5305,25 +5305,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T14" t="n">
-        <v>3463.589377311716</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U14" t="n">
-        <v>3206.528885571226</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="V14" t="n">
-        <v>2856.691330907707</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="W14" t="n">
-        <v>2472.931030042875</v>
+        <v>2944.548001240985</v>
       </c>
       <c r="X14" t="n">
-        <v>2072.287632211828</v>
+        <v>2543.904603409938</v>
       </c>
       <c r="Y14" t="n">
-        <v>1671.350959159918</v>
+        <v>2142.967930358028</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K15" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="L15" t="n">
-        <v>73.71591722729714</v>
+        <v>927.6169467092186</v>
       </c>
       <c r="M15" t="n">
-        <v>542.5899304202851</v>
+        <v>1528.939701226637</v>
       </c>
       <c r="N15" t="n">
-        <v>1416.248022531903</v>
+        <v>1528.939701226637</v>
       </c>
       <c r="O15" t="n">
-        <v>2120.205113077797</v>
+        <v>1528.939701226637</v>
       </c>
       <c r="P15" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="Q15" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R15" t="n">
         <v>2120.205113077797</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.81251781937</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C16" t="n">
-        <v>499.1640629946043</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D16" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E16" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F16" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G16" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H16" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I16" t="n">
         <v>73.71591722729714</v>
@@ -5478,10 +5478,10 @@
         <v>527.81251781937</v>
       </c>
       <c r="X16" t="n">
-        <v>527.81251781937</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.81251781937</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4526.90380932524</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4269.84331758475</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.3457975622561</v>
+        <v>179.3591785909751</v>
       </c>
       <c r="C19" t="n">
-        <v>402.3457975622561</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1350.978107866783</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1068.179960412907</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V19" t="n">
-        <v>794.2942153524291</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W19" t="n">
-        <v>640.6896597025727</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="X19" t="n">
-        <v>402.3457975622561</v>
+        <v>591.7945835962548</v>
       </c>
       <c r="Y19" t="n">
-        <v>402.3457975622561</v>
+        <v>367.0588849850195</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2151.931129920876</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>1741.806539234146</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
         <v>93.2436976906228</v>
@@ -5797,7 +5797,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2562.152309585365</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>643.6436162255084</v>
+        <v>518.69184345793</v>
       </c>
       <c r="C22" t="n">
-        <v>643.6436162255084</v>
+        <v>518.69184345793</v>
       </c>
       <c r="D22" t="n">
-        <v>643.6436162255084</v>
+        <v>359.19719878084</v>
       </c>
       <c r="E22" t="n">
-        <v>643.6436162255084</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G22" t="n">
         <v>359.19719878084</v>
@@ -5940,22 +5940,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1348.756849250995</v>
+        <v>1022.497206560291</v>
       </c>
       <c r="W22" t="n">
-        <v>1069.687184759869</v>
+        <v>743.4275420691653</v>
       </c>
       <c r="X22" t="n">
-        <v>831.3433226195527</v>
+        <v>743.4275420691653</v>
       </c>
       <c r="Y22" t="n">
-        <v>831.3433226195527</v>
+        <v>518.69184345793</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4624.019917181994</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4401.813433128853</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4105.773792315753</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3934.680419877469</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3775.185775200379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3614.274960068698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4662.18488453114</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U25" t="n">
-        <v>4662.18488453114</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V25" t="n">
-        <v>4662.18488453114</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W25" t="n">
-        <v>4662.18488453114</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X25" t="n">
-        <v>4423.841022390823</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y25" t="n">
-        <v>4293.473498709797</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2459.725286714852</v>
+        <v>2140.463105868917</v>
       </c>
       <c r="C26" t="n">
-        <v>2049.600696028122</v>
+        <v>1730.338515182187</v>
       </c>
       <c r="D26" t="n">
-        <v>1645.136766121183</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E26" t="n">
-        <v>1230.796550638079</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F26" t="n">
-        <v>809.7661385917668</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G26" t="n">
-        <v>401.0378544845989</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3671.526537262299</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3270.883139431251</v>
+        <v>2951.620958585316</v>
       </c>
       <c r="Y26" t="n">
-        <v>2869.946466379341</v>
+        <v>2550.684285533406</v>
       </c>
     </row>
     <row r="27">
@@ -6311,22 +6311,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4222.119838211426</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>4222.119838211426</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V28" t="n">
-        <v>4222.119838211426</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W28" t="n">
-        <v>4222.119838211426</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X28" t="n">
-        <v>4222.119838211426</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y28" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6493,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>354.5244442569915</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>354.5244442569915</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M30" t="n">
-        <v>354.5244442569915</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N30" t="n">
-        <v>1228.182536368609</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O30" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.2436976906228</v>
+        <v>745.826042287315</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6648,25 +6648,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T31" t="n">
-        <v>1383.093855288175</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U31" t="n">
-        <v>1100.295707834299</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V31" t="n">
-        <v>826.4099627738212</v>
+        <v>1162.365081130905</v>
       </c>
       <c r="W31" t="n">
-        <v>547.3402982826956</v>
+        <v>1158.261447292595</v>
       </c>
       <c r="X31" t="n">
-        <v>308.996436142379</v>
+        <v>1158.261447292595</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.2436976906228</v>
+        <v>933.5257486813593</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6733,19 +6733,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M33" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3727.402593048687</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3556.309220610403</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3396.814575933313</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3235.903760801633</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4422.636145507842</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U34" t="n">
-        <v>4139.837998053967</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V34" t="n">
-        <v>4139.837998053967</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W34" t="n">
-        <v>4139.837998053967</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X34" t="n">
-        <v>4139.837998053967</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y34" t="n">
-        <v>3915.102299442731</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6979,10 +6979,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>549.0499539559215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>1392.027034650488</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>1392.027034650488</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4390.520398086449</v>
+        <v>1545.439515804519</v>
       </c>
       <c r="T37" t="n">
-        <v>4150.971659063151</v>
+        <v>1305.890776781221</v>
       </c>
       <c r="U37" t="n">
-        <v>3868.173511609275</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="V37" t="n">
-        <v>3594.287766548796</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W37" t="n">
-        <v>3315.218102057671</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X37" t="n">
-        <v>3132.785987910289</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y37" t="n">
-        <v>3132.785987910289</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>444.4869682774688</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>133.5784709051868</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7219,7 +7219,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3956.166337121209</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>3785.072964682925</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>3625.578320005835</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>3464.667504874155</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>3300.036378984746</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4662.18488453114</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="S40" t="n">
-        <v>4662.18488453114</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="T40" t="n">
-        <v>4662.18488453114</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U40" t="n">
-        <v>4662.18488453114</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V40" t="n">
-        <v>4662.18488453114</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W40" t="n">
-        <v>4606.945604266805</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X40" t="n">
-        <v>4368.601742126489</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y40" t="n">
-        <v>4143.866043515253</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1302.64465330407</v>
+        <v>2443.311846829832</v>
       </c>
       <c r="C41" t="n">
-        <v>892.5200626173399</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="D41" t="n">
-        <v>488.0561327104004</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E41" t="n">
-        <v>73.71591722729714</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F41" t="n">
-        <v>73.71591722729714</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G41" t="n">
-        <v>73.71591722729714</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H41" t="n">
         <v>73.71591722729714</v>
@@ -7414,22 +7414,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K41" t="n">
-        <v>73.71591722729714</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L41" t="n">
-        <v>786.3073170395352</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M41" t="n">
-        <v>1562.625908031289</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N41" t="n">
-        <v>2315.806924669907</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O41" t="n">
-        <v>2959.437781087012</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P41" t="n">
-        <v>3488.594479006164</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q41" t="n">
         <v>3685.795861364857</v>
@@ -7441,22 +7441,22 @@
         <v>3685.795861364857</v>
       </c>
       <c r="T41" t="n">
-        <v>3505.104251120357</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U41" t="n">
-        <v>3248.043759379867</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V41" t="n">
-        <v>2898.206204716348</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W41" t="n">
-        <v>2514.445903851517</v>
+        <v>3302.035560500025</v>
       </c>
       <c r="X41" t="n">
-        <v>2113.802506020469</v>
+        <v>2901.392162668978</v>
       </c>
       <c r="Y41" t="n">
-        <v>1712.865832968559</v>
+        <v>2500.455489617068</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K42" t="n">
-        <v>73.71591722729714</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L42" t="n">
-        <v>73.71591722729714</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="M42" t="n">
-        <v>916.6929979218638</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="N42" t="n">
-        <v>1790.351090033482</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="O42" t="n">
-        <v>2120.205113077797</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P42" t="n">
-        <v>2120.205113077797</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q42" t="n">
         <v>2120.205113077797</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.3355467025513</v>
+        <v>304.281696091116</v>
       </c>
       <c r="C43" t="n">
-        <v>952.3355467025513</v>
+        <v>304.281696091116</v>
       </c>
       <c r="D43" t="n">
-        <v>832.4617504130601</v>
+        <v>304.281696091116</v>
       </c>
       <c r="E43" t="n">
-        <v>671.5509352813797</v>
+        <v>304.281696091116</v>
       </c>
       <c r="F43" t="n">
-        <v>506.9198093919709</v>
+        <v>223.3233724218405</v>
       </c>
       <c r="G43" t="n">
-        <v>339.6694183175143</v>
+        <v>223.3233724218405</v>
       </c>
       <c r="H43" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I43" t="n">
         <v>73.71591722729714</v>
@@ -7602,19 +7602,19 @@
         <v>1603.114813848147</v>
       </c>
       <c r="U43" t="n">
-        <v>1603.114813848147</v>
+        <v>1320.316666394272</v>
       </c>
       <c r="V43" t="n">
-        <v>1603.114813848147</v>
+        <v>1046.430921333794</v>
       </c>
       <c r="W43" t="n">
-        <v>1603.114813848147</v>
+        <v>767.3612568426679</v>
       </c>
       <c r="X43" t="n">
-        <v>1364.770951707831</v>
+        <v>529.0173947023513</v>
       </c>
       <c r="Y43" t="n">
-        <v>1140.035253096596</v>
+        <v>304.281696091116</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1727.939419550611</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C44" t="n">
-        <v>1317.814828863881</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D44" t="n">
         <v>1317.814828863881</v>
@@ -7654,19 +7654,19 @@
         <v>866.0608898040909</v>
       </c>
       <c r="L44" t="n">
-        <v>1415.528709241555</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M44" t="n">
-        <v>2191.847300233308</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N44" t="n">
-        <v>2191.847300233308</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O44" t="n">
-        <v>2835.478156650413</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P44" t="n">
-        <v>3364.634854569565</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q44" t="n">
         <v>3685.795861364857</v>
@@ -7684,16 +7684,16 @@
         <v>3428.735369624367</v>
       </c>
       <c r="V44" t="n">
-        <v>3078.897814960848</v>
+        <v>3428.735369624367</v>
       </c>
       <c r="W44" t="n">
-        <v>2695.137514096016</v>
+        <v>3344.204600004997</v>
       </c>
       <c r="X44" t="n">
-        <v>2294.494116264969</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y44" t="n">
-        <v>2138.1605992151</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K45" t="n">
-        <v>529.5221734925958</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L45" t="n">
-        <v>655.2816091150194</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="M45" t="n">
-        <v>655.2816091150194</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.939701226637</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="O45" t="n">
-        <v>1528.939701226637</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P45" t="n">
-        <v>2090.645593715167</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q45" t="n">
         <v>2090.645593715167</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1013.44231233389</v>
+        <v>343.8026215589438</v>
       </c>
       <c r="C46" t="n">
-        <v>842.3489398956069</v>
+        <v>343.8026215589438</v>
       </c>
       <c r="D46" t="n">
-        <v>682.8542952185169</v>
+        <v>184.3079768818538</v>
       </c>
       <c r="E46" t="n">
-        <v>521.9434800868363</v>
+        <v>184.3079768818538</v>
       </c>
       <c r="F46" t="n">
-        <v>357.3123541974276</v>
+        <v>184.3079768818538</v>
       </c>
       <c r="G46" t="n">
-        <v>190.061963122971</v>
+        <v>184.3079768818538</v>
       </c>
       <c r="H46" t="n">
-        <v>190.061963122971</v>
+        <v>184.3079768818538</v>
       </c>
       <c r="I46" t="n">
         <v>73.71591722729714</v>
@@ -7836,22 +7836,22 @@
         <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1603.114813848147</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U46" t="n">
-        <v>1603.114813848147</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V46" t="n">
-        <v>1603.114813848147</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W46" t="n">
-        <v>1603.114813848147</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="X46" t="n">
-        <v>1425.87771733917</v>
+        <v>568.5383201701791</v>
       </c>
       <c r="Y46" t="n">
-        <v>1201.142018727935</v>
+        <v>343.8026215589438</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
         <v>632.7318453389136</v>
@@ -7987,22 +7987,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M2" t="n">
-        <v>877.4504173780091</v>
+        <v>208.6432198571623</v>
       </c>
       <c r="N2" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O2" t="n">
-        <v>311.297161113964</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>266.54231935717</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
@@ -8072,7 +8072,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P3" t="n">
         <v>621.6393243851574</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>188.6765867334248</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
-        <v>690.062948947329</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>877.4504173780091</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>853.701196452193</v>
@@ -8294,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>176.3463909916617</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>418.5520878360603</v>
       </c>
       <c r="N6" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
@@ -8318,7 +8318,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>288.3297051870488</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
@@ -8470,7 +8470,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>628.1510783507341</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>266.54231935717</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>399.3111077937237</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>165.3052995080352</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8704,7 +8704,7 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>743.321953824879</v>
+        <v>537.5843517396877</v>
       </c>
       <c r="P11" t="n">
         <v>628.1510783507341</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
@@ -8777,16 +8777,16 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>429.3564034215992</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -8938,16 +8938,16 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>578.550660517026</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>289.2271199129839</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>531.1743980747689</v>
+        <v>664.9610054731837</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
@@ -9728,10 +9728,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>583.8332741668524</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9740,7 +9740,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>547.3465691139345</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
@@ -9977,7 +9977,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>319.7457288112504</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
@@ -10202,10 +10202,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
@@ -10214,7 +10214,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>518.93822867521</v>
       </c>
       <c r="N33" t="n">
-        <v>247.7181192045195</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>459.6316751683347</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10901,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11062,7 +11062,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11077,10 +11077,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507341</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q41" t="n">
-        <v>289.2271199129839</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
         <v>87.31214281472352</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11302,22 +11302,22 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>650.5033974946264</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.321953824879</v>
+        <v>676.6685272602841</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
         <v>87.31214281472352</v>
@@ -11375,19 +11375,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>183.1442567627921</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
@@ -11396,7 +11396,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>170.2963396125484</v>
       </c>
       <c r="E11" t="n">
-        <v>41.09972507055517</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>372.1275823051788</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>41.09972507055517</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>141.0204684373826</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23670,10 +23670,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>222.4997066824607</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>84.12811262255185</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23907,7 +23907,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>124.2104577528566</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>46.96074852400506</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>194.126371348605</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>96.14494677818598</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24417,22 +24417,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.42449318090732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>3.08319717252283</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>37.84312462897429</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>70.43669735679242</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>222.4997066824607</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24849,13 +24849,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24888,25 +24888,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.2163703462871</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>187.9942390719855</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>60.89821946808458</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25128,19 +25128,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>45.55681957368</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>108.096802717004</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>55.35263051300575</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>45.5568195736792</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>41.98257939627781</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -25605,13 +25605,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>221.5920803845233</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>349.546761508481</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25681,13 +25681,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>41.099725070555</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>39.22463990372289</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>82.83607419793185</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>296.2372359330064</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>242.1571244420205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>5.696446378706028</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>60.49569797502582</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>630485.6631670694</v>
+        <v>630485.6631670697</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>724856.1061282281</v>
+        <v>724856.1061282282</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>724856.1061282281</v>
+        <v>724856.106128228</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>724856.106128228</v>
+        <v>724856.1061282282</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>724856.106128228</v>
+        <v>724856.1061282282</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>724856.106128228</v>
+        <v>724856.1061282282</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>724856.106128228</v>
+        <v>724856.1061282284</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>630485.6631670694</v>
+        <v>630485.6631670695</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374629.503974651</v>
+        <v>374629.5039746512</v>
       </c>
       <c r="C2" t="n">
+        <v>374629.5039746509</v>
+      </c>
+      <c r="D2" t="n">
         <v>374629.5039746511</v>
       </c>
-      <c r="D2" t="n">
-        <v>374629.5039746512</v>
-      </c>
       <c r="E2" t="n">
-        <v>289738.3839776288</v>
+        <v>289738.3839776289</v>
       </c>
       <c r="F2" t="n">
-        <v>289738.3839776288</v>
+        <v>289738.3839776291</v>
       </c>
       <c r="G2" t="n">
-        <v>333095.9676653581</v>
+        <v>333095.967665358</v>
       </c>
       <c r="H2" t="n">
         <v>333095.9676653582</v>
       </c>
       <c r="I2" t="n">
-        <v>333095.9676653581</v>
+        <v>333095.9676653582</v>
       </c>
       <c r="J2" t="n">
-        <v>333095.9676653582</v>
+        <v>333095.9676653583</v>
       </c>
       <c r="K2" t="n">
         <v>333095.9676653582</v>
       </c>
       <c r="L2" t="n">
-        <v>333095.9676653582</v>
+        <v>333095.967665358</v>
       </c>
       <c r="M2" t="n">
         <v>333095.9676653582</v>
       </c>
       <c r="N2" t="n">
-        <v>333095.967665358</v>
+        <v>333095.9676653581</v>
       </c>
       <c r="O2" t="n">
+        <v>289738.3839776287</v>
+      </c>
+      <c r="P2" t="n">
         <v>289738.3839776289</v>
-      </c>
-      <c r="P2" t="n">
-        <v>289738.3839776287</v>
       </c>
     </row>
     <row r="3">
@@ -26429,19 +26429,19 @@
         <v>39034.29883442245</v>
       </c>
       <c r="F4" t="n">
-        <v>39034.29883442246</v>
+        <v>39034.29883442245</v>
       </c>
       <c r="G4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="H4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="I4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="J4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="K4" t="n">
         <v>44919.86535090264</v>
@@ -26453,10 +26453,10 @@
         <v>44919.86535090264</v>
       </c>
       <c r="N4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090263</v>
       </c>
       <c r="O4" t="n">
-        <v>39034.29883442245</v>
+        <v>39034.29883442246</v>
       </c>
       <c r="P4" t="n">
         <v>39034.29883442245</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-147121.4184383141</v>
+        <v>-147121.4184383139</v>
       </c>
       <c r="C6" t="n">
-        <v>161677.3231737298</v>
+        <v>161677.3231737296</v>
       </c>
       <c r="D6" t="n">
         <v>161677.3231737298</v>
       </c>
       <c r="E6" t="n">
-        <v>194679.9880504605</v>
+        <v>194310.8962243866</v>
       </c>
       <c r="F6" t="n">
-        <v>194679.9880504605</v>
+        <v>194310.8962243868</v>
       </c>
       <c r="G6" t="n">
-        <v>150407.4957159495</v>
+        <v>150226.9151233002</v>
       </c>
       <c r="H6" t="n">
-        <v>217310.8920695822</v>
+        <v>217130.3114769331</v>
       </c>
       <c r="I6" t="n">
-        <v>217310.8920695821</v>
+        <v>217130.3114769331</v>
       </c>
       <c r="J6" t="n">
-        <v>-23780.70101815445</v>
+        <v>-23961.28161080345</v>
       </c>
       <c r="K6" t="n">
-        <v>217310.8920695822</v>
+        <v>217130.3114769332</v>
       </c>
       <c r="L6" t="n">
-        <v>217310.8920695822</v>
+        <v>217130.311476933</v>
       </c>
       <c r="M6" t="n">
-        <v>217310.8920695822</v>
+        <v>217130.3114769332</v>
       </c>
       <c r="N6" t="n">
-        <v>217310.892069582</v>
+        <v>217130.311476933</v>
       </c>
       <c r="O6" t="n">
-        <v>194679.9880504606</v>
+        <v>194310.8962243864</v>
       </c>
       <c r="P6" t="n">
-        <v>194679.9880504604</v>
+        <v>194310.8962243866</v>
       </c>
     </row>
   </sheetData>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>289.5248933876635</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>12.38802852210824</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>140.4341843621653</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.7545235571748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>41.74734910992152</v>
+        <v>376.2280667842595</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27785,10 +27785,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>62.29037340415934</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -27833,7 +27833,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>4.874559219806031</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>27.48745694935324</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>55.1123087083954</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,19 +28064,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>194.7158398879882</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>543.5954556656965</v>
@@ -34707,22 +34707,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M2" t="n">
-        <v>784.1601929209636</v>
+        <v>115.3529954001169</v>
       </c>
       <c r="N2" t="n">
         <v>760.7889056955737</v>
       </c>
       <c r="O2" t="n">
-        <v>218.1073854881809</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>210.7165365725546</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P3" t="n">
         <v>567.3796893823536</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>115.3529954001169</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5775508844841</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>784.1601929209636</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>760.7889056955737</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>120.2318671808126</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="N6" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>199.1933155138316</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
@@ -35190,7 +35190,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>534.50171506985</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>341.7468240553063</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.98170817472726</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35424,7 +35424,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>650.1321781990958</v>
+        <v>444.3945761139046</v>
       </c>
       <c r="P11" t="n">
         <v>534.50171506985</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
@@ -35497,16 +35497,16 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>371.6049244215992</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35658,16 +35658,16 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>485.3608848912428</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>199.1933155138319</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>473.6101143363514</v>
+        <v>607.3967217347663</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>530.6398807731025</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>491.2320453030855</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>263.919946026635</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,10 +36922,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
@@ -36934,7 +36934,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="N33" t="n">
-        <v>194.5247258107695</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>401.8801961683346</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37797,10 +37797,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.50171506985</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q41" t="n">
-        <v>199.1933155138319</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,22 +38022,22 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>555.0179994317815</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.1321781990958</v>
+        <v>583.478751634501</v>
       </c>
       <c r="P44" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>127.029732951943</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>29.85810036629282</v>
